--- a/biology/Botanique/Rehmannia/Rehmannia.xlsx
+++ b/biology/Botanique/Rehmannia/Rehmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rehmannia est un genre de sept espèces de plantes à fleurs de l'ordre des Lamiales et de la famille des Orobanchaceae, que l'on trouve uniquement en Chine[1]. Il a été placé comme le seul membre de la tribu monotypique Rehmannieae[2],[3], mais les études phylogénétiques moléculaires suggèrent qu'il forme un clade avec Triaenophora . Contrairement à l'immense majorité des taxons d'Orobanchaceae, Rehmannia n'est pas parasitaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rehmannia est un genre de sept espèces de plantes à fleurs de l'ordre des Lamiales et de la famille des Orobanchaceae, que l'on trouve uniquement en Chine. Il a été placé comme le seul membre de la tribu monotypique Rehmannieae mais les études phylogénétiques moléculaires suggèrent qu'il forme un clade avec Triaenophora . Contrairement à l'immense majorité des taxons d'Orobanchaceae, Rehmannia n'est pas parasitaire.
 </t>
         </is>
       </c>
@@ -513,14 +525,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-Rehmannia est nommé en hommage à Joseph Rehmann (1788–1831), médecin à Saint-Pétersbourg[4].
-Homonymie
-Le nom Rehmannia a également été donné à un genre d'ammonites jurassiques de la famille des Reineckeidae.
-Classification
-Dans certaines classifications plus anciennes, le genre a été inclus dans la famille Scrophulariaceae ou Gesneriaceae. Le placement actuel du genre n'est ni dans les scrophulariaceae s.s. ni dans les plantaginacées sl (auxquels de nombreux autres anciens Scrophulariaceae ont été transférés). Des études moléculaires antérieures ont suggéré que ses parents les plus proches étaient les genres Lancea et Mazus[5], qui ont été inclus dans Phrymaceae[6]. Par la suite, il a été découvert que Rehmannia se regroupe avec Triaenophora, et les deux taxons forment conjointement le groupe frère de Lindenbergia et des Orobanchaceae parasites[7]. Une classification de 2016 des plantes à fleurs, le système APG IV a élargi les Orobanchaceae pour inclure Rehmannia[8], ce qui en fait l'un des rares genres de la famille, avec Lindenbergia, à ne pas être parasitaire.
-Liste des espèces
-Depuis mars 2022, Plants of the World Online compte six espèces[9] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rehmannia est nommé en hommage à Joseph Rehmann (1788–1831), médecin à Saint-Pétersbourg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rehmannia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rehmannia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Homonymie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Rehmannia a également été donné à un genre d'ammonites jurassiques de la famille des Reineckeidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rehmannia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rehmannia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certaines classifications plus anciennes, le genre a été inclus dans la famille Scrophulariaceae ou Gesneriaceae. Le placement actuel du genre n'est ni dans les scrophulariaceae s.s. ni dans les plantaginacées sl (auxquels de nombreux autres anciens Scrophulariaceae ont été transférés). Des études moléculaires antérieures ont suggéré que ses parents les plus proches étaient les genres Lancea et Mazus, qui ont été inclus dans Phrymaceae. Par la suite, il a été découvert que Rehmannia se regroupe avec Triaenophora, et les deux taxons forment conjointement le groupe frère de Lindenbergia et des Orobanchaceae parasites. Une classification de 2016 des plantes à fleurs, le système APG IV a élargi les Orobanchaceae pour inclure Rehmannia, ce qui en fait l'un des rares genres de la famille, avec Lindenbergia, à ne pas être parasitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rehmannia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rehmannia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Depuis mars 2022, Plants of the World Online compte six espèces :
 Rehmannia chingii HLLi
 Rehmannia chrysantha MHLi &amp; CHZhang
 Rehmannia glutinosa (Gaertn. ) CC.
@@ -531,69 +657,108 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rehmannia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rehmannia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Parfois connues sous le nom de digitale chinoise en raison de leur ressemblance visuelle avec le genre Digitalis, les espèces de Rehmannia sont des herbes vivaces. Les plantes ont de grandes fleurs et sont cultivées comme plantes de jardin ornementales en Europe et en Amérique du Nord, et sont utilisées en médecine en Asie.
-Médecine Chinoise Traditionnelle
-Connu sous le nom de dìhuáng (地黄) ou gān dìhuáng (干地黄) en chinois, R. glutinosa est utilisé comme herbe médicinale pour de nombreuses conditions (traitement du diabète, de l'insuffisance rénale, de l'ostéoporose et de la dysménorrhée[10]) dans les formulations traditionnelles chinoises[11].
-C'est l'ingrédient principal d'un mélange appelé si wu tang (décoction de quatre substances) avec Dang gui, la pivoine chinoise (bai shao yao) et Ligusticum striatum (chuan xiong) qui est considéré comme un médicament fondamental pour favoriser la fabrication d'hémoglobine[12].
-Lorsque deux ingrédients, la pêche (tao ren) et le carthame (hong hua), sont ajoutés, cela s'appelle tao hong si wu tang (décoction de quatre substances avec noyau de pêche et carthame), qui est utilisé en MTC pour la fatigue[13].
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rehmannia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rehmannia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine Chinoise Traditionnelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu sous le nom de dìhuáng (地黄) ou gān dìhuáng (干地黄) en chinois, R. glutinosa est utilisé comme herbe médicinale pour de nombreuses conditions (traitement du diabète, de l'insuffisance rénale, de l'ostéoporose et de la dysménorrhée) dans les formulations traditionnelles chinoises.
+C'est l'ingrédient principal d'un mélange appelé si wu tang (décoction de quatre substances) avec Dang gui, la pivoine chinoise (bai shao yao) et Ligusticum striatum (chuan xiong) qui est considéré comme un médicament fondamental pour favoriser la fabrication d'hémoglobine.
+Lorsque deux ingrédients, la pêche (tao ren) et le carthame (hong hua), sont ajoutés, cela s'appelle tao hong si wu tang (décoction de quatre substances avec noyau de pêche et carthame), qui est utilisé en MTC pour la fatigue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rehmannia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rehmannia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Propriétés et constituants chimiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Rehmannia contient des composés, tels que le catalpol, un glycoside iridoïde.
-Radix Rehmanniae aurait une variété d'activités pharmacologiques, telles que l'hémostase, l'antioxydation, le traitement de l'ostéoporose, l'abaissement de la glycémie, l'abaissement de la tension artérielle, la protection des cardiomyocytes, la protection de la fonction pulmonaire, la protection du foie, l'amélioration de la fonction rénale, l'anti-inflammation, l'anti-allergie, améliorant l'immunité, protégeant les nerfs, anti-dépression et anti-anxiété[10],[14].
+Radix Rehmanniae aurait une variété d'activités pharmacologiques, telles que l'hémostase, l'antioxydation, le traitement de l'ostéoporose, l'abaissement de la glycémie, l'abaissement de la tension artérielle, la protection des cardiomyocytes, la protection de la fonction pulmonaire, la protection du foie, l'amélioration de la fonction rénale, l'anti-inflammation, l'anti-allergie, améliorant l'immunité, protégeant les nerfs, anti-dépression et anti-anxiété,.
 </t>
         </is>
       </c>
